--- a/Final_File/Repeated_Ticker_guru_portfolio.xlsx
+++ b/Final_File/Repeated_Ticker_guru_portfolio.xlsx
@@ -1457,13 +1457,13 @@
                   <c:v>45.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.405</c:v>
+                  <c:v>45.4325</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.1625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.31</c:v>
+                  <c:v>38.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.8325</c:v>
@@ -1994,7 +1994,7 @@
                   <c:v>154.2266666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.26166666666666</c:v>
+                  <c:v>99.30333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>67.51333333333334</c:v>
@@ -2006,7 +2006,7 @@
                   <c:v>65.42833333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.39666666666667</c:v>
+                  <c:v>58.30500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.52666666666667</c:v>
@@ -3120,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="AC4" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="5">
         <v>7</v>
@@ -3132,7 +3132,7 @@
         <v>36</v>
       </c>
       <c r="AG4" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AH4" s="2">
         <v>18</v>
@@ -3147,22 +3147,22 @@
         <v>21</v>
       </c>
       <c r="AL4" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM4" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN4" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO4" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP4" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AQ4" s="2">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="2:43">
@@ -3947,7 +3947,7 @@
         <v>344</v>
       </c>
       <c r="F11" s="3">
-        <v>60.1</v>
+        <v>51.45</v>
       </c>
       <c r="G11" s="3">
         <v>294.05</v>
@@ -4331,7 +4331,7 @@
         <v>347</v>
       </c>
       <c r="F14" s="3">
-        <v>56.41</v>
+        <v>56.25</v>
       </c>
       <c r="G14" s="3">
         <v>309.25</v>
@@ -4459,7 +4459,7 @@
         <v>348</v>
       </c>
       <c r="F15" s="3">
-        <v>72.67</v>
+        <v>74.2</v>
       </c>
       <c r="G15" s="3">
         <v>906.86</v>
@@ -4587,7 +4587,7 @@
         <v>344</v>
       </c>
       <c r="F16" s="3">
-        <v>38.68</v>
+        <v>35.13</v>
       </c>
       <c r="G16" s="3">
         <v>248.17</v>
@@ -4715,7 +4715,7 @@
         <v>347</v>
       </c>
       <c r="F17" s="3">
-        <v>41.31</v>
+        <v>45.79</v>
       </c>
       <c r="G17" s="3">
         <v>340.3</v>
@@ -4843,7 +4843,7 @@
         <v>347</v>
       </c>
       <c r="F18" s="3">
-        <v>32.81</v>
+        <v>40.94</v>
       </c>
       <c r="G18" s="3">
         <v>552.75</v>
@@ -4971,7 +4971,7 @@
         <v>349</v>
       </c>
       <c r="F19" s="3">
-        <v>50.01</v>
+        <v>51.44</v>
       </c>
       <c r="G19" s="3">
         <v>114.14</v>
@@ -5227,7 +5227,7 @@
         <v>344</v>
       </c>
       <c r="F21" s="3">
-        <v>71.18000000000001</v>
+        <v>54.23</v>
       </c>
       <c r="G21" s="3">
         <v>190.74</v>
@@ -5239,55 +5239,55 @@
         <v>-0.0795</v>
       </c>
       <c r="J21" s="4">
-        <v>0.0058</v>
+        <v>0.006</v>
       </c>
       <c r="K21" s="4">
-        <v>0.1019</v>
+        <v>0.1021</v>
       </c>
       <c r="L21" s="4">
-        <v>0.187</v>
+        <v>0.1872</v>
       </c>
       <c r="M21" s="4">
-        <v>0.5344</v>
+        <v>0.5347999999999999</v>
       </c>
       <c r="N21" s="4">
-        <v>1.5215</v>
+        <v>1.522</v>
       </c>
       <c r="O21" s="4">
-        <v>3.6051</v>
+        <v>3.6061</v>
       </c>
       <c r="P21" s="4">
-        <v>1.8836</v>
+        <v>1.8838</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.7778</v>
+        <v>0.7779</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>355</v>
       </c>
       <c r="S21" s="4">
-        <v>22.977564</v>
+        <v>22.982553</v>
       </c>
       <c r="T21" s="4">
-        <v>16.758837</v>
+        <v>16.763832</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>355</v>
       </c>
       <c r="V21" s="4">
-        <v>0.47012</v>
+        <v>0.47042</v>
       </c>
       <c r="W21" s="4">
-        <v>0.5861999999999999</v>
+        <v>0.5865250000000001</v>
       </c>
       <c r="X21" s="4">
-        <v>0.098233</v>
+        <v>0.09843299999999999</v>
       </c>
       <c r="Y21" s="4">
-        <v>1.462</v>
+        <v>1.462525</v>
       </c>
       <c r="Z21" s="4">
-        <v>0.9926170000000001</v>
+        <v>0.9930329999999999</v>
       </c>
       <c r="AA21" s="5">
         <v>37</v>
@@ -5355,7 +5355,7 @@
         <v>348</v>
       </c>
       <c r="F22" s="3">
-        <v>45.84</v>
+        <v>47.78</v>
       </c>
       <c r="G22" s="3">
         <v>186.86</v>
@@ -5867,7 +5867,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="3">
-        <v>38.61</v>
+        <v>36.5</v>
       </c>
       <c r="G26" s="3">
         <v>147.17</v>
@@ -6123,7 +6123,7 @@
         <v>344</v>
       </c>
       <c r="F28" s="3">
-        <v>44.28</v>
+        <v>40.4</v>
       </c>
       <c r="G28" s="3">
         <v>259.64</v>
@@ -6251,7 +6251,7 @@
         <v>348</v>
       </c>
       <c r="F29" s="3">
-        <v>35.71</v>
+        <v>34.11</v>
       </c>
       <c r="G29" s="3">
         <v>330.83</v>
@@ -6379,7 +6379,7 @@
         <v>350</v>
       </c>
       <c r="F30" s="3">
-        <v>47.52</v>
+        <v>51.64</v>
       </c>
       <c r="G30" s="3">
         <v>68.66</v>
@@ -6507,7 +6507,7 @@
         <v>347</v>
       </c>
       <c r="F31" s="3">
-        <v>61.01</v>
+        <v>60.26</v>
       </c>
       <c r="G31" s="3">
         <v>87.13</v>
@@ -6635,7 +6635,7 @@
         <v>346</v>
       </c>
       <c r="F32" s="3">
-        <v>58.04</v>
+        <v>54.69</v>
       </c>
       <c r="G32" s="3">
         <v>203.89</v>
@@ -7147,7 +7147,7 @@
         <v>348</v>
       </c>
       <c r="F36" s="3">
-        <v>38.13</v>
+        <v>42.61</v>
       </c>
       <c r="G36" s="3">
         <v>125.01</v>
@@ -7275,7 +7275,7 @@
         <v>347</v>
       </c>
       <c r="F37" s="3">
-        <v>53.97</v>
+        <v>56.06</v>
       </c>
       <c r="G37" s="3">
         <v>790.83</v>
@@ -7403,7 +7403,7 @@
         <v>350</v>
       </c>
       <c r="F38" s="3">
-        <v>30.18</v>
+        <v>37.66</v>
       </c>
       <c r="G38" s="3">
         <v>147.66</v>
@@ -7659,7 +7659,7 @@
         <v>348</v>
       </c>
       <c r="F40" s="3">
-        <v>25.57</v>
+        <v>23.63</v>
       </c>
       <c r="G40" s="3">
         <v>48.25</v>
@@ -7787,7 +7787,7 @@
         <v>344</v>
       </c>
       <c r="F41" s="3">
-        <v>62.07</v>
+        <v>47.53</v>
       </c>
       <c r="G41" s="3">
         <v>160.94</v>
@@ -7915,7 +7915,7 @@
         <v>348</v>
       </c>
       <c r="F42" s="3">
-        <v>38.16</v>
+        <v>44.08</v>
       </c>
       <c r="G42" s="3">
         <v>83.86</v>
@@ -8043,7 +8043,7 @@
         <v>347</v>
       </c>
       <c r="F43" s="3">
-        <v>55.25</v>
+        <v>47.93</v>
       </c>
       <c r="G43" s="3">
         <v>145.77</v>
@@ -8171,7 +8171,7 @@
         <v>345</v>
       </c>
       <c r="F44" s="3">
-        <v>48.7</v>
+        <v>46.34</v>
       </c>
       <c r="G44" s="3">
         <v>111.47</v>
@@ -8299,7 +8299,7 @@
         <v>344</v>
       </c>
       <c r="F45" s="3">
-        <v>62.24</v>
+        <v>47.88</v>
       </c>
       <c r="G45" s="3">
         <v>94.67</v>
@@ -8555,7 +8555,7 @@
         <v>350</v>
       </c>
       <c r="F47" s="3">
-        <v>40.53</v>
+        <v>39.26</v>
       </c>
       <c r="G47" s="3">
         <v>142.92</v>
@@ -8567,22 +8567,22 @@
         <v>-0.0049</v>
       </c>
       <c r="J47" s="4">
-        <v>-0.0481</v>
+        <v>-0.048</v>
       </c>
       <c r="K47" s="4">
-        <v>0.006500000000000001</v>
+        <v>0.0066</v>
       </c>
       <c r="L47" s="4">
-        <v>0.0339</v>
+        <v>0.0341</v>
       </c>
       <c r="M47" s="4">
-        <v>0.0907</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="N47" s="4">
-        <v>-0.0322</v>
+        <v>-0.032</v>
       </c>
       <c r="O47" s="4">
-        <v>-0.1077</v>
+        <v>-0.1076</v>
       </c>
       <c r="P47" s="4">
         <v>-0.04190000000000001</v>
@@ -8591,7 +8591,7 @@
         <v>0.0382</v>
       </c>
       <c r="R47" s="4">
-        <v>0.067</v>
+        <v>0.06709999999999999</v>
       </c>
       <c r="S47" s="4">
         <v>-0.120507</v>
@@ -8600,22 +8600,22 @@
         <v>0.206161</v>
       </c>
       <c r="U47" s="4">
-        <v>0.9126879999999999</v>
+        <v>0.914482</v>
       </c>
       <c r="V47" s="4">
-        <v>0.01016</v>
+        <v>0.0103</v>
       </c>
       <c r="W47" s="4">
-        <v>0.024725</v>
+        <v>0.024875</v>
       </c>
       <c r="X47" s="4">
-        <v>-0.002567</v>
+        <v>-0.002433</v>
       </c>
       <c r="Y47" s="4">
-        <v>-0.003825</v>
+        <v>-0.003675</v>
       </c>
       <c r="Z47" s="4">
-        <v>-0.009483</v>
+        <v>-0.009350000000000001</v>
       </c>
       <c r="AA47" s="5">
         <v>135</v>
@@ -8683,7 +8683,7 @@
         <v>346</v>
       </c>
       <c r="F48" s="3">
-        <v>56.86</v>
+        <v>54.41</v>
       </c>
       <c r="G48" s="3">
         <v>133.84</v>
@@ -9195,7 +9195,7 @@
         <v>345</v>
       </c>
       <c r="F52" s="3">
-        <v>31.49</v>
+        <v>30.83</v>
       </c>
       <c r="G52" s="3">
         <v>24.44</v>
@@ -9323,7 +9323,7 @@
         <v>347</v>
       </c>
       <c r="F53" s="3">
-        <v>49.61</v>
+        <v>47.27</v>
       </c>
       <c r="G53" s="3">
         <v>15.07</v>
@@ -9451,7 +9451,7 @@
         <v>347</v>
       </c>
       <c r="F54" s="3">
-        <v>44.77</v>
+        <v>48.42</v>
       </c>
       <c r="G54" s="3">
         <v>93.84</v>
@@ -9579,7 +9579,7 @@
         <v>344</v>
       </c>
       <c r="F55" s="3">
-        <v>43.43</v>
+        <v>43.02</v>
       </c>
       <c r="G55" s="3">
         <v>27.91</v>
@@ -10088,7 +10088,7 @@
         <v>348</v>
       </c>
       <c r="F59" s="3">
-        <v>54.67</v>
+        <v>54.33</v>
       </c>
       <c r="G59" s="3">
         <v>213.83</v>
@@ -10344,7 +10344,7 @@
         <v>351</v>
       </c>
       <c r="F61" s="3">
-        <v>44.28</v>
+        <v>35.56</v>
       </c>
       <c r="G61" s="3">
         <v>547.96</v>
@@ -10981,7 +10981,7 @@
         <v>347</v>
       </c>
       <c r="F66" s="3">
-        <v>61.3</v>
+        <v>51.4</v>
       </c>
       <c r="G66" s="3">
         <v>80.54000000000001</v>
@@ -11008,10 +11008,10 @@
         <v>0.5848</v>
       </c>
       <c r="O66" s="4">
-        <v>0.5332</v>
+        <v>0.5333</v>
       </c>
       <c r="P66" s="4">
-        <v>0.1247</v>
+        <v>0.1248</v>
       </c>
       <c r="Q66" s="4">
         <v>0.1714</v>
@@ -11020,7 +11020,7 @@
         <v>0.115</v>
       </c>
       <c r="S66" s="4">
-        <v>0.422689</v>
+        <v>0.423069</v>
       </c>
       <c r="T66" s="4">
         <v>1.205597</v>
@@ -11038,10 +11038,10 @@
         <v>0.027</v>
       </c>
       <c r="Y66" s="4">
-        <v>0.3772</v>
+        <v>0.377225</v>
       </c>
       <c r="Z66" s="4">
-        <v>0.247217</v>
+        <v>0.247233</v>
       </c>
       <c r="AA66" s="5">
         <v>107</v>
@@ -11109,7 +11109,7 @@
         <v>345</v>
       </c>
       <c r="F67" s="3">
-        <v>37.65</v>
+        <v>33.63</v>
       </c>
       <c r="G67" s="3">
         <v>629.6</v>
@@ -11237,7 +11237,7 @@
         <v>351</v>
       </c>
       <c r="F68" s="3">
-        <v>47.79</v>
+        <v>52.62</v>
       </c>
       <c r="G68" s="3">
         <v>468.3</v>
@@ -11365,7 +11365,7 @@
         <v>347</v>
       </c>
       <c r="F69" s="3">
-        <v>59.47</v>
+        <v>49.88</v>
       </c>
       <c r="G69" s="3">
         <v>136.8</v>
@@ -11877,7 +11877,7 @@
         <v>347</v>
       </c>
       <c r="F73" s="3">
-        <v>36.42</v>
+        <v>38.11</v>
       </c>
       <c r="G73" s="3">
         <v>118.29</v>
@@ -12133,7 +12133,7 @@
         <v>349</v>
       </c>
       <c r="F75" s="3">
-        <v>36.45</v>
+        <v>34.34</v>
       </c>
       <c r="G75" s="3">
         <v>46.39</v>
@@ -12645,7 +12645,7 @@
         <v>346</v>
       </c>
       <c r="F79" s="3">
-        <v>35.75</v>
+        <v>34.89</v>
       </c>
       <c r="G79" s="3">
         <v>156.51</v>
@@ -12901,7 +12901,7 @@
         <v>344</v>
       </c>
       <c r="F81" s="3">
-        <v>74.33</v>
+        <v>61.26</v>
       </c>
       <c r="G81" s="3">
         <v>265.42</v>
@@ -13157,7 +13157,7 @@
         <v>347</v>
       </c>
       <c r="F83" s="3">
-        <v>51.26</v>
+        <v>52.11</v>
       </c>
       <c r="G83" s="3">
         <v>487.46</v>
@@ -13285,7 +13285,7 @@
         <v>352</v>
       </c>
       <c r="F84" s="3">
-        <v>45.84</v>
+        <v>42.06</v>
       </c>
       <c r="G84" s="3">
         <v>78.90000000000001</v>
@@ -13413,7 +13413,7 @@
         <v>347</v>
       </c>
       <c r="F85" s="3">
-        <v>23.93</v>
+        <v>28.24</v>
       </c>
       <c r="G85" s="3">
         <v>146.98</v>
@@ -13669,7 +13669,7 @@
         <v>344</v>
       </c>
       <c r="F87" s="3">
-        <v>67.51000000000001</v>
+        <v>55.88</v>
       </c>
       <c r="G87" s="3">
         <v>232.91</v>
@@ -14437,7 +14437,7 @@
         <v>345</v>
       </c>
       <c r="F93" s="3">
-        <v>30.32</v>
+        <v>28.29</v>
       </c>
       <c r="G93" s="3">
         <v>104.13</v>
@@ -14565,7 +14565,7 @@
         <v>351</v>
       </c>
       <c r="F94" s="3">
-        <v>58.99</v>
+        <v>51.52</v>
       </c>
       <c r="G94" s="3">
         <v>111.04</v>
@@ -14693,7 +14693,7 @@
         <v>347</v>
       </c>
       <c r="F95" s="3">
-        <v>44.34</v>
+        <v>42.98</v>
       </c>
       <c r="G95" s="3">
         <v>46.43</v>
@@ -14821,7 +14821,7 @@
         <v>344</v>
       </c>
       <c r="F96" s="3">
-        <v>81.43000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="G96" s="3">
         <v>243.55</v>
@@ -15205,7 +15205,7 @@
         <v>351</v>
       </c>
       <c r="F99" s="3">
-        <v>65.7</v>
+        <v>54.71</v>
       </c>
       <c r="G99" s="3">
         <v>180.82</v>
@@ -15333,7 +15333,7 @@
         <v>349</v>
       </c>
       <c r="F100" s="3">
-        <v>41.59</v>
+        <v>37.48</v>
       </c>
       <c r="G100" s="3">
         <v>30.22</v>
@@ -15717,7 +15717,7 @@
         <v>353</v>
       </c>
       <c r="F103" s="3">
-        <v>46.85</v>
+        <v>42.55</v>
       </c>
       <c r="G103" s="3">
         <v>185.74</v>
@@ -15845,7 +15845,7 @@
         <v>346</v>
       </c>
       <c r="F104" s="3">
-        <v>67.68000000000001</v>
+        <v>61.44</v>
       </c>
       <c r="G104" s="3">
         <v>66.87</v>
@@ -15973,7 +15973,7 @@
         <v>346</v>
       </c>
       <c r="F105" s="3">
-        <v>44.38</v>
+        <v>43.85</v>
       </c>
       <c r="G105" s="3">
         <v>258.64</v>
@@ -16101,7 +16101,7 @@
         <v>351</v>
       </c>
       <c r="F106" s="3">
-        <v>66.43000000000001</v>
+        <v>64.38</v>
       </c>
       <c r="G106" s="3">
         <v>251.88</v>
@@ -16357,7 +16357,7 @@
         <v>346</v>
       </c>
       <c r="F108" s="3">
-        <v>54.26</v>
+        <v>56.34</v>
       </c>
       <c r="G108" s="3">
         <v>32.13</v>
@@ -16485,7 +16485,7 @@
         <v>349</v>
       </c>
       <c r="F109" s="3">
-        <v>48.24</v>
+        <v>40.86</v>
       </c>
       <c r="G109" s="3">
         <v>16.55</v>
@@ -16613,7 +16613,7 @@
         <v>347</v>
       </c>
       <c r="F110" s="3">
-        <v>62.44</v>
+        <v>59.78</v>
       </c>
       <c r="G110" s="3">
         <v>32.85</v>
@@ -16741,7 +16741,7 @@
         <v>351</v>
       </c>
       <c r="F111" s="3">
-        <v>48.2</v>
+        <v>50.76</v>
       </c>
       <c r="G111" s="3">
         <v>291.12</v>
@@ -16869,7 +16869,7 @@
         <v>349</v>
       </c>
       <c r="F112" s="3">
-        <v>64.36</v>
+        <v>57.18</v>
       </c>
       <c r="G112" s="3">
         <v>36.12</v>
@@ -16997,7 +16997,7 @@
         <v>347</v>
       </c>
       <c r="F113" s="3">
-        <v>47.51</v>
+        <v>48.89</v>
       </c>
       <c r="G113" s="3">
         <v>79.45999999999999</v>
@@ -17381,7 +17381,7 @@
         <v>351</v>
       </c>
       <c r="F116" s="3">
-        <v>59.16</v>
+        <v>55.37</v>
       </c>
       <c r="G116" s="3">
         <v>244.85</v>
@@ -17509,7 +17509,7 @@
         <v>344</v>
       </c>
       <c r="F117" s="3">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="G117" s="3">
         <v>449.31</v>
@@ -17893,7 +17893,7 @@
         <v>353</v>
       </c>
       <c r="F120" s="3">
-        <v>58.74</v>
+        <v>55.39</v>
       </c>
       <c r="G120" s="3">
         <v>96.23</v>
@@ -18149,7 +18149,7 @@
         <v>349</v>
       </c>
       <c r="F122" s="3">
-        <v>37.85</v>
+        <v>33.97</v>
       </c>
       <c r="G122" s="3">
         <v>40.08</v>
@@ -18277,7 +18277,7 @@
         <v>346</v>
       </c>
       <c r="F123" s="3">
-        <v>28.33</v>
+        <v>23.5</v>
       </c>
       <c r="G123" s="3">
         <v>222.03</v>
@@ -18533,7 +18533,7 @@
         <v>350</v>
       </c>
       <c r="F125" s="3">
-        <v>26.81</v>
+        <v>28.11</v>
       </c>
       <c r="G125" s="3">
         <v>73.09999999999999</v>
@@ -18661,7 +18661,7 @@
         <v>349</v>
       </c>
       <c r="F126" s="3">
-        <v>58.1</v>
+        <v>58.05</v>
       </c>
       <c r="G126" s="3">
         <v>55.85</v>
@@ -19045,7 +19045,7 @@
         <v>344</v>
       </c>
       <c r="F129" s="3">
-        <v>33.13</v>
+        <v>38.43</v>
       </c>
       <c r="G129" s="3">
         <v>63.15</v>
@@ -19301,7 +19301,7 @@
         <v>346</v>
       </c>
       <c r="F131" s="3">
-        <v>38.42</v>
+        <v>41.38</v>
       </c>
       <c r="G131" s="3">
         <v>121.65</v>
@@ -19813,7 +19813,7 @@
         <v>347</v>
       </c>
       <c r="F135" s="3">
-        <v>37.57</v>
+        <v>49.85</v>
       </c>
       <c r="G135" s="3">
         <v>74.05</v>
@@ -19941,7 +19941,7 @@
         <v>347</v>
       </c>
       <c r="F136" s="3">
-        <v>38.2</v>
+        <v>36.36</v>
       </c>
       <c r="G136" s="3">
         <v>24.36</v>
@@ -20069,7 +20069,7 @@
         <v>345</v>
       </c>
       <c r="F137" s="3">
-        <v>63.16</v>
+        <v>65.77</v>
       </c>
       <c r="G137" s="3">
         <v>58.16</v>
@@ -20081,25 +20081,25 @@
         <v>0.0145</v>
       </c>
       <c r="J137" s="4">
-        <v>0.0664</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="K137" s="4">
-        <v>0.043</v>
+        <v>0.0432</v>
       </c>
       <c r="L137" s="4">
-        <v>0.1235</v>
+        <v>0.1237</v>
       </c>
       <c r="M137" s="4">
-        <v>0.2658</v>
+        <v>0.2661</v>
       </c>
       <c r="N137" s="4">
-        <v>0.2843</v>
+        <v>0.2846</v>
       </c>
       <c r="O137" s="4">
-        <v>0.4701</v>
+        <v>0.4704</v>
       </c>
       <c r="P137" s="4">
-        <v>0.2967</v>
+        <v>0.2968</v>
       </c>
       <c r="Q137" s="4">
         <v>0.1965</v>
@@ -20108,7 +20108,7 @@
         <v>355</v>
       </c>
       <c r="S137" s="4">
-        <v>1.180311</v>
+        <v>1.180816</v>
       </c>
       <c r="T137" s="4">
         <v>1.452243</v>
@@ -20117,19 +20117,19 @@
         <v>355</v>
       </c>
       <c r="V137" s="4">
-        <v>0.1566</v>
+        <v>0.15684</v>
       </c>
       <c r="W137" s="4">
-        <v>0.17915</v>
+        <v>0.1794</v>
       </c>
       <c r="X137" s="4">
-        <v>0.07763300000000001</v>
+        <v>0.077833</v>
       </c>
       <c r="Y137" s="4">
-        <v>0.285925</v>
+        <v>0.2862</v>
       </c>
       <c r="Z137" s="4">
-        <v>0.20885</v>
+        <v>0.2091</v>
       </c>
       <c r="AA137" s="5">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>349</v>
       </c>
       <c r="F139" s="3">
-        <v>63.19</v>
+        <v>63.16</v>
       </c>
       <c r="G139" s="3">
         <v>110.06</v>
@@ -20337,22 +20337,22 @@
         <v>-0.0002</v>
       </c>
       <c r="J139" s="4">
-        <v>0.08960000000000001</v>
+        <v>0.0897</v>
       </c>
       <c r="K139" s="4">
-        <v>0.0243</v>
+        <v>0.0244</v>
       </c>
       <c r="L139" s="4">
-        <v>0.1039</v>
+        <v>0.104</v>
       </c>
       <c r="M139" s="4">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
       <c r="N139" s="4">
-        <v>0.1348</v>
+        <v>0.1349</v>
       </c>
       <c r="O139" s="4">
-        <v>0.324</v>
+        <v>0.3240999999999999</v>
       </c>
       <c r="P139" s="4">
         <v>0.0747</v>
@@ -20373,19 +20373,19 @@
         <v>355</v>
       </c>
       <c r="V139" s="4">
-        <v>0.08268</v>
+        <v>0.08278000000000001</v>
       </c>
       <c r="W139" s="4">
-        <v>0.08095000000000001</v>
+        <v>0.08105000000000001</v>
       </c>
       <c r="X139" s="4">
-        <v>0.0726</v>
+        <v>0.0727</v>
       </c>
       <c r="Y139" s="4">
-        <v>0.155875</v>
+        <v>0.155975</v>
       </c>
       <c r="Z139" s="4">
-        <v>0.1229</v>
+        <v>0.123</v>
       </c>
       <c r="AA139" s="5">
         <v>3</v>
@@ -20453,7 +20453,7 @@
         <v>351</v>
       </c>
       <c r="F140" s="3">
-        <v>25.87</v>
+        <v>25.03</v>
       </c>
       <c r="G140" s="3">
         <v>208.46</v>
@@ -20581,7 +20581,7 @@
         <v>347</v>
       </c>
       <c r="F141" s="3">
-        <v>56.27</v>
+        <v>59.58</v>
       </c>
       <c r="G141" s="3">
         <v>1981.81</v>
@@ -20775,7 +20775,7 @@
         <v>5</v>
       </c>
       <c r="AB142" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC142" s="5">
         <v>26</v>
@@ -20790,7 +20790,7 @@
         <v>42</v>
       </c>
       <c r="AG142" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH142" s="2">
         <v>31</v>
@@ -20805,22 +20805,22 @@
         <v>38</v>
       </c>
       <c r="AL142" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM142" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN142" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO142" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP142" s="2">
         <v>202</v>
       </c>
       <c r="AQ142" s="2">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="143" spans="2:43">
@@ -20837,7 +20837,7 @@
         <v>350</v>
       </c>
       <c r="F143" s="3">
-        <v>40.39</v>
+        <v>42.51</v>
       </c>
       <c r="G143" s="3">
         <v>99.77</v>
@@ -20965,7 +20965,7 @@
         <v>346</v>
       </c>
       <c r="F144" s="3">
-        <v>44.97</v>
+        <v>47.91</v>
       </c>
       <c r="G144" s="3">
         <v>66.23</v>
@@ -21093,7 +21093,7 @@
         <v>346</v>
       </c>
       <c r="F145" s="3">
-        <v>30.16</v>
+        <v>29.51</v>
       </c>
       <c r="G145" s="3">
         <v>36.31</v>
@@ -21221,7 +21221,7 @@
         <v>344</v>
       </c>
       <c r="F146" s="3">
-        <v>36.41</v>
+        <v>32.77</v>
       </c>
       <c r="G146" s="3">
         <v>222.78</v>
@@ -21605,7 +21605,7 @@
         <v>352</v>
       </c>
       <c r="F149" s="3">
-        <v>42.07</v>
+        <v>39.33</v>
       </c>
       <c r="G149" s="3">
         <v>61.49</v>
@@ -21861,7 +21861,7 @@
         <v>344</v>
       </c>
       <c r="F151" s="3">
-        <v>46.35</v>
+        <v>41.82</v>
       </c>
       <c r="G151" s="3">
         <v>150.92</v>
@@ -22757,7 +22757,7 @@
         <v>349</v>
       </c>
       <c r="F158" s="3">
-        <v>32.84</v>
+        <v>35.03</v>
       </c>
       <c r="G158" s="3">
         <v>80.27</v>
@@ -22885,7 +22885,7 @@
         <v>346</v>
       </c>
       <c r="F159" s="3">
-        <v>44.12</v>
+        <v>38.33</v>
       </c>
       <c r="G159" s="3">
         <v>297.87</v>
@@ -23525,7 +23525,7 @@
         <v>349</v>
       </c>
       <c r="F164" s="3">
-        <v>64.90000000000001</v>
+        <v>60.69</v>
       </c>
       <c r="G164" s="3">
         <v>14.75</v>
@@ -23716,7 +23716,7 @@
         <v>-0.009367</v>
       </c>
       <c r="AA165" s="5">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB165" s="5">
         <v>157</v>
@@ -23734,7 +23734,7 @@
         <v>114</v>
       </c>
       <c r="AG165" s="5">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AH165" s="2">
         <v>132</v>
@@ -23749,22 +23749,22 @@
         <v>123</v>
       </c>
       <c r="AL165" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AM165" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AN165" s="2">
         <v>652</v>
       </c>
       <c r="AO165" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AP165" s="2">
         <v>600</v>
       </c>
       <c r="AQ165" s="2">
-        <v>3762</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="166" spans="2:43">
@@ -23781,7 +23781,7 @@
         <v>349</v>
       </c>
       <c r="F166" s="3">
-        <v>54.79</v>
+        <v>49.11</v>
       </c>
       <c r="G166" s="3">
         <v>28.98</v>
@@ -24037,7 +24037,7 @@
         <v>349</v>
       </c>
       <c r="F168" s="3">
-        <v>45.72</v>
+        <v>38.87</v>
       </c>
       <c r="G168" s="3">
         <v>76.66</v>
@@ -24165,7 +24165,7 @@
         <v>349</v>
       </c>
       <c r="F169" s="3">
-        <v>63.62</v>
+        <v>55.43</v>
       </c>
       <c r="G169" s="3">
         <v>54.73</v>
@@ -24293,7 +24293,7 @@
         <v>346</v>
       </c>
       <c r="F170" s="3">
-        <v>36.41</v>
+        <v>33.69</v>
       </c>
       <c r="G170" s="3">
         <v>75.03</v>
@@ -24421,7 +24421,7 @@
         <v>352</v>
       </c>
       <c r="F171" s="3">
-        <v>64.81</v>
+        <v>50.48</v>
       </c>
       <c r="G171" s="3">
         <v>64.81999999999999</v>
@@ -24549,7 +24549,7 @@
         <v>354</v>
       </c>
       <c r="F172" s="3">
-        <v>76.79000000000001</v>
+        <v>77.06</v>
       </c>
       <c r="G172" s="3">
         <v>58.9</v>
@@ -24677,7 +24677,7 @@
         <v>346</v>
       </c>
       <c r="F173" s="3">
-        <v>76.61</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="G173" s="3">
         <v>17.14</v>
@@ -24689,25 +24689,25 @@
         <v>-0.0092</v>
       </c>
       <c r="J173" s="4">
-        <v>-0.0161</v>
+        <v>-0.0166</v>
       </c>
       <c r="K173" s="4">
-        <v>0.2732</v>
+        <v>0.2725</v>
       </c>
       <c r="L173" s="4">
-        <v>0.344</v>
+        <v>0.3432</v>
       </c>
       <c r="M173" s="4">
-        <v>0.5954999999999999</v>
+        <v>0.5946</v>
       </c>
       <c r="N173" s="4">
-        <v>0.9312999999999999</v>
+        <v>0.9301</v>
       </c>
       <c r="O173" s="4">
-        <v>1.3759</v>
+        <v>1.3745</v>
       </c>
       <c r="P173" s="4">
-        <v>0.3239</v>
+        <v>0.3236</v>
       </c>
       <c r="Q173" s="4" t="s">
         <v>355</v>
@@ -24716,7 +24716,7 @@
         <v>355</v>
       </c>
       <c r="S173" s="4">
-        <v>1.320414</v>
+        <v>1.318837</v>
       </c>
       <c r="T173" s="4" t="s">
         <v>355</v>
@@ -24725,22 +24725,22 @@
         <v>355</v>
       </c>
       <c r="V173" s="4">
-        <v>0.42558</v>
+        <v>0.42476</v>
       </c>
       <c r="W173" s="4">
-        <v>0.536</v>
+        <v>0.5351</v>
       </c>
       <c r="X173" s="4">
-        <v>0.200367</v>
+        <v>0.1997</v>
       </c>
       <c r="Y173" s="4">
-        <v>0.811675</v>
+        <v>0.8106</v>
       </c>
       <c r="Z173" s="4">
-        <v>0.583967</v>
+        <v>0.58305</v>
       </c>
       <c r="AA173" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB173" s="5">
         <v>1</v>
@@ -24758,7 +24758,7 @@
         <v>4</v>
       </c>
       <c r="AG173" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH173" s="2">
         <v>6</v>
@@ -24773,22 +24773,22 @@
         <v>6</v>
       </c>
       <c r="AL173" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM173" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN173" s="2">
         <v>40</v>
       </c>
       <c r="AO173" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP173" s="2">
         <v>43</v>
       </c>
       <c r="AQ173" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="2:43">
@@ -24805,7 +24805,7 @@
         <v>346</v>
       </c>
       <c r="F174" s="3">
-        <v>36.46</v>
+        <v>38.27</v>
       </c>
       <c r="G174" s="3">
         <v>126.92</v>
@@ -24933,7 +24933,7 @@
         <v>349</v>
       </c>
       <c r="F175" s="3">
-        <v>52.55</v>
+        <v>49.02</v>
       </c>
       <c r="G175" s="3">
         <v>50.85</v>
@@ -25102,7 +25102,7 @@
         <v>189</v>
       </c>
       <c r="C4">
-        <v>45.405</v>
+        <v>45.4325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -25124,7 +25124,7 @@
         <v>341</v>
       </c>
       <c r="C6">
-        <v>38.31</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -25691,7 +25691,7 @@
         <v>189</v>
       </c>
       <c r="C3">
-        <v>99.26166666666666</v>
+        <v>99.30333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -25735,7 +25735,7 @@
         <v>341</v>
       </c>
       <c r="C7">
-        <v>58.39666666666667</v>
+        <v>58.30500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
